--- a/Rayox_complete_dataset.xlsx
+++ b/Rayox_complete_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mounir\Desktop\Thèse\Toronto 2024\modelisation\modularized merged model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB54EB00-09A9-42F4-ABA4-EAEA850FA77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15D0AC-9958-40DF-A402-E47DFA2A138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73319718-F2B1-4691-A017-8A7D04E7D19E}" name="Tableau1" displayName="Tableau1" ref="A1:AB291" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:AB291" xr:uid="{73319718-F2B1-4691-A017-8A7D04E7D19E}"/>
+  <autoFilter ref="A1:AB291" xr:uid="{73319718-F2B1-4691-A017-8A7D04E7D19E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MQ"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A141:AB152">
     <sortCondition ref="H1:H291"/>
   </sortState>
@@ -656,7 +667,7 @@
   <dimension ref="A1:AB291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:AB291"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -845,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -913,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -981,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1188,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1419,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>73.150000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2019,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2098,7 @@
         <v>0.98625404827735119</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>0.46109745184494327</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2522,7 +2533,7 @@
         <v>0.97556030139881034</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2587,7 +2598,7 @@
         <v>0.97101140360225946</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>0.99932694502899011</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>0.35131516021042558</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2945,7 +2956,7 @@
         <v>0.26720620683841639</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3022,7 +3033,7 @@
         <v>0.24101213647813141</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3099,7 +3110,7 @@
         <v>0.23808995619083251</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3176,7 +3187,7 @@
         <v>0.38555178322697781</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3250,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -3324,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3401,7 +3412,7 @@
         <v>0.29413138151765228</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -3475,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3549,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -3617,7 +3628,7 @@
         <v>0.45779772010671838</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3691,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>0.94958527113839331</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3901,7 +3912,7 @@
         <v>8.8952654232424683E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>0.190374790406341</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>0.14689663400833211</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>6.905252890606732E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -4200,7 +4211,7 @@
         <v>0.14661654135338351</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>0.9099169652852247</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>0.93541511243738673</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -4398,7 +4409,7 @@
         <v>0.97482978872242765</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -4466,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -4691,7 +4702,7 @@
         <v>0.1483913790747651</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -4768,7 +4779,7 @@
         <v>0.139569498511564</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -4845,7 +4856,7 @@
         <v>0.13312056239183051</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -4922,7 +4933,7 @@
         <v>5.3370933873271922E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -4996,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -5070,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -5147,7 +5158,7 @@
         <v>1.253869614148337E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -5221,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -5295,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -5363,7 +5374,7 @@
         <v>4.1959738054814448E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -5437,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -5511,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -5579,7 +5590,7 @@
         <v>0.91950648693630399</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -5647,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -5724,7 +5735,7 @@
         <v>0.127911114250015</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -5801,7 +5812,7 @@
         <v>1.919649474343884E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -5878,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -5946,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -6014,7 +6025,7 @@
         <v>0.88140649516714287</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>0.90067142704891834</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -6144,7 +6155,7 @@
         <v>0.97419822727153282</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -6212,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -6286,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -6360,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -6437,7 +6448,7 @@
         <v>0.1175865625461453</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -6514,7 +6525,7 @@
         <v>0.1080833524158461</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -6591,7 +6602,7 @@
         <v>9.5193374147224979E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -6668,7 +6679,7 @@
         <v>6.277692739699579E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -6816,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -6893,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -6967,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -7041,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -7109,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -7183,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>46</v>
       </c>
@@ -7257,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -7322,7 +7333,7 @@
         <v>0.88383246296493667</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -7387,7 +7398,7 @@
         <v>0.96225682850989802</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -7461,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
@@ -7535,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -7612,7 +7623,7 @@
         <v>8.4382871536523921E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -7689,7 +7700,7 @@
         <v>8.1511078940386741E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>39</v>
       </c>
@@ -7763,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -7911,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -7985,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -8059,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -8133,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -8210,7 +8221,7 @@
         <v>8.2665445385848399E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -8284,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -8358,7 +8369,7 @@
         <v>1.015743879472693</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>49</v>
       </c>
@@ -8432,7 +8443,7 @@
         <v>0.94561205273069682</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -8506,7 +8517,7 @@
         <v>0.89092278719397355</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -8580,7 +8591,7 @@
         <v>0.839924670433145</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>49</v>
       </c>
@@ -8654,7 +8665,7 @@
         <v>0.80806026365348393</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>49</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>49</v>
       </c>
@@ -8802,7 +8813,7 @@
         <v>0.98964008901849443</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>49</v>
       </c>
@@ -8876,7 +8887,7 @@
         <v>0.92625278182794879</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>49</v>
       </c>
@@ -8950,7 +8961,7 @@
         <v>0.86869772081958407</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -9024,7 +9035,7 @@
         <v>0.85580538715371035</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>49</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>0.80438953265290458</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -9172,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -9246,7 +9257,7 @@
         <v>1.0083584861852799</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -9320,7 +9331,7 @@
         <v>0.88336816035910526</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -9394,7 +9405,7 @@
         <v>0.77254082501354371</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>50</v>
       </c>
@@ -9468,7 +9479,7 @@
         <v>0.77486262673167705</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -9542,7 +9553,7 @@
         <v>0.70629208265614118</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -9616,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -9690,7 +9701,7 @@
         <v>1.0194310076248261</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -9764,7 +9775,7 @@
         <v>0.90678035582520289</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -9838,7 +9849,7 @@
         <v>0.82495695662867918</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -9912,7 +9923,7 @@
         <v>0.75936705747314914</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>50</v>
       </c>
@@ -9986,7 +9997,7 @@
         <v>0.72780191850455023</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -10060,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -10134,7 +10145,7 @@
         <v>0.86196738558653352</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -10208,7 +10219,7 @@
         <v>0.6643871646501841</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -10282,7 +10293,7 @@
         <v>0.58074697527617047</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -10356,7 +10367,7 @@
         <v>0.55960021041557073</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -10430,7 +10441,7 @@
         <v>0.48953182535507628</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>51</v>
       </c>
@@ -10504,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -10578,7 +10589,7 @@
         <v>0.85474860335195524</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -10652,7 +10663,7 @@
         <v>0.6858363457114689</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -10726,7 +10737,7 @@
         <v>0.54069449008653736</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -10800,7 +10811,7 @@
         <v>0.50837988826815639</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>0.4803373863511885</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -10948,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>52</v>
       </c>
@@ -11022,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>52</v>
       </c>
@@ -11096,7 +11107,7 @@
         <v>0.95264336146030648</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>52</v>
       </c>
@@ -11170,7 +11181,7 @@
         <v>0.88837054315228248</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -11244,7 +11255,7 @@
         <v>0.64835543309798516</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>52</v>
       </c>
@@ -11318,7 +11329,7 @@
         <v>0.57997334221926022</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -11392,7 +11403,7 @@
         <v>0.3619769244015843</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -11466,7 +11477,7 @@
         <v>0.34638453848717088</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>52</v>
       </c>
@@ -11540,7 +11551,7 @@
         <v>0.19752023420010331</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -11614,7 +11625,7 @@
         <v>0.19210263245584799</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>52</v>
       </c>
@@ -11688,7 +11699,7 @@
         <v>0.1179610814534183</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>52</v>
       </c>
@@ -11762,7 +11773,7 @@
         <v>0.1082972342552482</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>53</v>
       </c>
@@ -11836,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -11910,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -11984,7 +11995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -12058,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>53</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>0.49370424597364571</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -12206,7 +12217,7 @@
         <v>0.56339196813806847</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>53</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v>0.2162518301610542</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>53</v>
       </c>
@@ -12354,7 +12365,7 @@
         <v>0.23763690673747101</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>53</v>
       </c>
@@ -12428,7 +12439,7 @@
         <v>0.1049780380673499</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>53</v>
       </c>
@@ -12502,7 +12513,7 @@
         <v>0.108695652173913</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>53</v>
       </c>
@@ -12576,7 +12587,7 @@
         <v>4.8901903367496342E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>53</v>
       </c>
@@ -19641,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>32</v>
       </c>
@@ -19709,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -19777,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>41</v>
       </c>
@@ -19854,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -19931,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>35</v>
       </c>
@@ -19984,7 +19995,7 @@
         <v>88.32</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>36</v>
       </c>
@@ -20037,7 +20048,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>39</v>
       </c>
@@ -20087,7 +20098,7 @@
         <v>82.43</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>42</v>
       </c>
@@ -20137,7 +20148,7 @@
         <v>75.19</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>45</v>
       </c>
@@ -20187,7 +20198,7 @@
         <v>87.24</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>33</v>
       </c>
@@ -20237,7 +20248,7 @@
         <v>89.12</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>34</v>
       </c>
@@ -20287,7 +20298,7 @@
         <v>87.15</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>46</v>
       </c>
@@ -20337,7 +20348,7 @@
         <v>86.65</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>43</v>
       </c>
@@ -20387,7 +20398,7 @@
         <v>72.81</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>40</v>
       </c>
@@ -20437,7 +20448,7 @@
         <v>83.41</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>37</v>
       </c>
